--- a/results/mp/deberta/corona/confidence/42/stop-words-topk-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/42/stop-words-topk-0.1/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="70">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,9 +40,6 @@
     <t>name</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
     <t>crisis</t>
   </si>
   <si>
@@ -52,151 +49,178 @@
     <t>negative</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>best</t>
+    <t>free</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
-    <t>free</t>
+    <t>special</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
     <t>thank</t>
   </si>
   <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
+    <t>confidence</t>
+  </si>
+  <si>
     <t>good</t>
   </si>
   <si>
+    <t>better</t>
+  </si>
+  <si>
     <t>positive</t>
   </si>
   <si>
-    <t>better</t>
+    <t>please</t>
+  </si>
+  <si>
+    <t>fresh</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
-    <t>please</t>
+    <t>well</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>like</t>
   </si>
   <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
     <t>safety</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
     <t>hope</t>
   </si>
   <si>
+    <t>share</t>
+  </si>
+  <si>
     <t>help</t>
   </si>
   <si>
     <t>care</t>
   </si>
   <si>
-    <t>share</t>
-  </si>
-  <si>
     <t>hand</t>
   </si>
   <si>
+    <t>sure</t>
+  </si>
+  <si>
     <t>new</t>
   </si>
   <si>
     <t>staff</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>online</t>
   </si>
   <si>
-    <t>2</t>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>shopping</t>
   </si>
   <si>
     <t>local</t>
   </si>
   <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>shopping</t>
+    <t>delivery</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>grocery</t>
   </si>
   <si>
     <t>home</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>social</t>
   </si>
   <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
     <t>via</t>
   </si>
   <si>
+    <t>co</t>
+  </si>
+  <si>
     <t>amp</t>
   </si>
   <si>
-    <t>co</t>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>us</t>
   </si>
   <si>
     <t>san</t>
   </si>
   <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
     <t>supermarket</t>
   </si>
   <si>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
     <t>prices</t>
-  </si>
-  <si>
-    <t>toilet</t>
-  </si>
-  <si>
-    <t>corona</t>
   </si>
   <si>
     <t>food</t>
@@ -557,7 +581,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q52"/>
+  <dimension ref="A1:Q61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -565,10 +589,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -626,13 +650,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.5555555555555556</v>
+        <v>0.5068493150684932</v>
       </c>
       <c r="C3">
-        <v>20</v>
+        <v>148</v>
       </c>
       <c r="D3">
-        <v>20</v>
+        <v>148</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -644,31 +668,31 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>16</v>
+        <v>144</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K3">
-        <v>0.9375</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L3">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="M3">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N3">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O3">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -676,13 +700,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.5034246575342466</v>
+        <v>0.1104651162790698</v>
       </c>
       <c r="C4">
-        <v>147</v>
+        <v>57</v>
       </c>
       <c r="D4">
-        <v>147</v>
+        <v>57</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -694,104 +718,80 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>145</v>
+        <v>459</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K4">
-        <v>0.9137931034482759</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L4">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M4">
         <v>54</v>
       </c>
       <c r="N4">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O4">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5">
-        <v>0.1145631067961165</v>
-      </c>
-      <c r="C5">
-        <v>59</v>
-      </c>
-      <c r="D5">
-        <v>60</v>
-      </c>
-      <c r="E5">
-        <v>0.02</v>
-      </c>
-      <c r="F5">
-        <v>0.98</v>
-      </c>
-      <c r="G5" t="b">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>456</v>
-      </c>
       <c r="J5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K5">
-        <v>0.9111111111111111</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L5">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="M5">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="N5">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O5">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="J6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K6">
-        <v>0.8898305084745762</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="L6">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M6">
         <v>107</v>
       </c>
       <c r="N6">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O6">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6">
         <v>13</v>
@@ -799,42 +799,42 @@
     </row>
     <row r="7" spans="1:17">
       <c r="J7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K7">
-        <v>0.8727272727272727</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="L7">
-        <v>96</v>
+        <v>41</v>
       </c>
       <c r="M7">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="N7">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O7">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="J8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K8">
-        <v>0.8611111111111112</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -846,21 +846,21 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="J9" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K9">
-        <v>0.8461538461538461</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L9">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="M9">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -872,125 +872,125 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K10">
-        <v>0.84251968503937</v>
+        <v>0.828125</v>
       </c>
       <c r="L10">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M10">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="N10">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O10">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K11">
-        <v>0.825</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="L11">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="M11">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="N11">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O11">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K12">
-        <v>0.7721518987341772</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L12">
-        <v>122</v>
+        <v>22</v>
       </c>
       <c r="M12">
-        <v>124</v>
+        <v>22</v>
       </c>
       <c r="N12">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O12">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>36</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K13">
-        <v>0.7017543859649122</v>
+        <v>0.8048780487804879</v>
       </c>
       <c r="L13">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="M13">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="N13">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O13">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K14">
-        <v>0.6984126984126984</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L14">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="M14">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1002,73 +1002,73 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K15">
-        <v>0.6831683168316832</v>
+        <v>0.7625</v>
       </c>
       <c r="L15">
-        <v>69</v>
+        <v>122</v>
       </c>
       <c r="M15">
-        <v>74</v>
+        <v>122</v>
       </c>
       <c r="N15">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O15">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K16">
-        <v>0.6695652173913044</v>
+        <v>0.7301587301587301</v>
       </c>
       <c r="L16">
-        <v>154</v>
+        <v>46</v>
       </c>
       <c r="M16">
-        <v>163</v>
+        <v>46</v>
       </c>
       <c r="N16">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O16">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>76</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K17">
-        <v>0.6382978723404256</v>
+        <v>0.7068965517241379</v>
       </c>
       <c r="L17">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="M17">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1085,120 +1085,120 @@
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K18">
-        <v>0.6304347826086957</v>
+        <v>0.6778242677824268</v>
       </c>
       <c r="L18">
-        <v>29</v>
+        <v>162</v>
       </c>
       <c r="M18">
-        <v>31</v>
+        <v>162</v>
       </c>
       <c r="N18">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O18">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>17</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K19">
-        <v>0.6285714285714286</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L19">
-        <v>88</v>
+        <v>32</v>
       </c>
       <c r="M19">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="N19">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O19">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K20">
-        <v>0.6153846153846154</v>
+        <v>0.660377358490566</v>
       </c>
       <c r="L20">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="M20">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="N20">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O20">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K21">
-        <v>0.5882352941176471</v>
+        <v>0.648936170212766</v>
       </c>
       <c r="L21">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="M21">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="N21">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O21">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>14</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K22">
-        <v>0.5686274509803921</v>
+        <v>0.5985915492957746</v>
       </c>
       <c r="L22">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="M22">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1210,411 +1210,411 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>22</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K23">
-        <v>0.5548780487804879</v>
+        <v>0.5676470588235294</v>
       </c>
       <c r="L23">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="M23">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="N23">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O23">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K24">
-        <v>0.515625</v>
+        <v>0.5531914893617021</v>
       </c>
       <c r="L24">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="M24">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="N24">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O24">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K25">
-        <v>0.4740484429065744</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="L25">
-        <v>137</v>
+        <v>27</v>
       </c>
       <c r="M25">
-        <v>143</v>
+        <v>27</v>
       </c>
       <c r="N25">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O25">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>152</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K26">
-        <v>0.4659090909090909</v>
+        <v>0.5230769230769231</v>
       </c>
       <c r="L26">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="M26">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="N26">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O26">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>47</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K27">
-        <v>0.4411764705882353</v>
+        <v>0.5</v>
       </c>
       <c r="L27">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="M27">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="N27">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O27">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K28">
-        <v>0.4251968503937008</v>
+        <v>0.4813559322033898</v>
       </c>
       <c r="L28">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="M28">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="N28">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O28">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28">
-        <v>219</v>
+        <v>153</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K29">
-        <v>0.2616822429906542</v>
+        <v>0.449438202247191</v>
       </c>
       <c r="L29">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="M29">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="N29">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O29">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q29">
-        <v>158</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K30">
-        <v>0.2291666666666667</v>
+        <v>0.4360313315926893</v>
       </c>
       <c r="L30">
-        <v>22</v>
+        <v>167</v>
       </c>
       <c r="M30">
-        <v>23</v>
+        <v>167</v>
       </c>
       <c r="N30">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O30">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30">
-        <v>74</v>
+        <v>216</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K31">
-        <v>0.2240963855421687</v>
+        <v>0.40625</v>
       </c>
       <c r="L31">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c r="M31">
-        <v>96</v>
+        <v>26</v>
       </c>
       <c r="N31">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O31">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31">
-        <v>322</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K32">
-        <v>0.1835443037974684</v>
+        <v>0.2651162790697674</v>
       </c>
       <c r="L32">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="M32">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="N32">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O32">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32">
-        <v>129</v>
+        <v>158</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K33">
-        <v>0.1728395061728395</v>
+        <v>0.2474226804123711</v>
       </c>
       <c r="L33">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="M33">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="N33">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O33">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33">
-        <v>134</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K34">
-        <v>0.1719745222929936</v>
+        <v>0.220125786163522</v>
       </c>
       <c r="L34">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="M34">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="N34">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O34">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K35">
-        <v>0.143939393939394</v>
+        <v>0.2129186602870813</v>
       </c>
       <c r="L35">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="M35">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="N35">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O35">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>113</v>
+        <v>329</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K36">
-        <v>0.1331719128329298</v>
+        <v>0.1886792452830189</v>
       </c>
       <c r="L36">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="M36">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="N36">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O36">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36">
-        <v>358</v>
+        <v>129</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K37">
-        <v>0.1261682242990654</v>
+        <v>0.1678321678321678</v>
       </c>
       <c r="L37">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="M37">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="N37">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O37">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37">
-        <v>187</v>
+        <v>119</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K38">
-        <v>0.1173913043478261</v>
+        <v>0.1641791044776119</v>
       </c>
       <c r="L38">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="M38">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1626,177 +1626,177 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>203</v>
+        <v>112</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K39">
-        <v>0.103448275862069</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="L39">
-        <v>93</v>
+        <v>21</v>
       </c>
       <c r="M39">
-        <v>95</v>
+        <v>21</v>
       </c>
       <c r="N39">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O39">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q39">
-        <v>806</v>
+        <v>112</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K40">
-        <v>0.1009389671361502</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="L40">
-        <v>215</v>
+        <v>64</v>
       </c>
       <c r="M40">
-        <v>228</v>
+        <v>64</v>
       </c>
       <c r="N40">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O40">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40">
-        <v>1915</v>
+        <v>352</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K41">
-        <v>0.09876543209876543</v>
+        <v>0.1533742331288344</v>
       </c>
       <c r="L41">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="M41">
-        <v>91</v>
+        <v>25</v>
       </c>
       <c r="N41">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O41">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q41">
-        <v>803</v>
+        <v>138</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K42">
-        <v>0.09322033898305085</v>
+        <v>0.1532846715328467</v>
       </c>
       <c r="L42">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M42">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N42">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O42">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42">
-        <v>214</v>
+        <v>116</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K43">
-        <v>0.09248554913294797</v>
+        <v>0.1450381679389313</v>
       </c>
       <c r="L43">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="M43">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="N43">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O43">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q43">
-        <v>314</v>
+        <v>112</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K44">
-        <v>0.09134925758553905</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="L44">
-        <v>283</v>
+        <v>21</v>
       </c>
       <c r="M44">
-        <v>292</v>
+        <v>21</v>
       </c>
       <c r="N44">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O44">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q44">
-        <v>2815</v>
+        <v>126</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K45">
-        <v>0.09053497942386832</v>
+        <v>0.1162079510703364</v>
       </c>
       <c r="L45">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="M45">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -1808,189 +1808,423 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>442</v>
+        <v>289</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K46">
-        <v>0.08950617283950617</v>
+        <v>0.1152125279642058</v>
       </c>
       <c r="L46">
-        <v>29</v>
+        <v>103</v>
       </c>
       <c r="M46">
-        <v>32</v>
+        <v>103</v>
       </c>
       <c r="N46">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O46">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q46">
-        <v>295</v>
+        <v>791</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K47">
-        <v>0.07264296754250386</v>
+        <v>0.1087680355160932</v>
       </c>
       <c r="L47">
-        <v>47</v>
+        <v>98</v>
       </c>
       <c r="M47">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="N47">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O47">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q47">
-        <v>600</v>
+        <v>803</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K48">
-        <v>0.0625</v>
+        <v>0.1069767441860465</v>
       </c>
       <c r="L48">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="M48">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="N48">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O48">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q48">
-        <v>810</v>
+        <v>192</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K49">
-        <v>0.04926534140017286</v>
+        <v>0.105459636024265</v>
       </c>
       <c r="L49">
-        <v>57</v>
+        <v>226</v>
       </c>
       <c r="M49">
-        <v>61</v>
+        <v>226</v>
       </c>
       <c r="N49">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O49">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q49">
-        <v>1100</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K50">
-        <v>0.04770318021201413</v>
+        <v>0.1043478260869565</v>
       </c>
       <c r="L50">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="M50">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="N50">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O50">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q50">
-        <v>539</v>
+        <v>206</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K51">
-        <v>0.04475743348982786</v>
+        <v>0.1012658227848101</v>
       </c>
       <c r="L51">
-        <v>143</v>
+        <v>24</v>
       </c>
       <c r="M51">
-        <v>149</v>
+        <v>24</v>
       </c>
       <c r="N51">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O51">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q51">
-        <v>3052</v>
+        <v>213</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K52">
+        <v>0.0984872867718056</v>
+      </c>
+      <c r="L52">
+        <v>306</v>
+      </c>
+      <c r="M52">
+        <v>306</v>
+      </c>
+      <c r="N52">
+        <v>1</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="P52" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>2801</v>
+      </c>
+    </row>
+    <row r="53" spans="10:17">
+      <c r="J53" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="K52">
-        <v>0.02284527518172378</v>
-      </c>
-      <c r="L52">
-        <v>22</v>
-      </c>
-      <c r="M52">
-        <v>27</v>
-      </c>
-      <c r="N52">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="O52">
-        <v>0.1899999999999999</v>
-      </c>
-      <c r="P52" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q52">
-        <v>941</v>
+      <c r="K53">
+        <v>0.09169054441260745</v>
+      </c>
+      <c r="L53">
+        <v>32</v>
+      </c>
+      <c r="M53">
+        <v>32</v>
+      </c>
+      <c r="N53">
+        <v>1</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+      <c r="P53" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="54" spans="10:17">
+      <c r="J54" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K54">
+        <v>0.08461538461538462</v>
+      </c>
+      <c r="L54">
+        <v>55</v>
+      </c>
+      <c r="M54">
+        <v>55</v>
+      </c>
+      <c r="N54">
+        <v>1</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+      <c r="P54" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="55" spans="10:17">
+      <c r="J55" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K55">
+        <v>0.07865168539325842</v>
+      </c>
+      <c r="L55">
+        <v>21</v>
+      </c>
+      <c r="M55">
+        <v>21</v>
+      </c>
+      <c r="N55">
+        <v>1</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+      <c r="P55" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="56" spans="10:17">
+      <c r="J56" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K56">
+        <v>0.07818930041152264</v>
+      </c>
+      <c r="L56">
+        <v>38</v>
+      </c>
+      <c r="M56">
+        <v>38</v>
+      </c>
+      <c r="N56">
+        <v>1</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+      <c r="P56" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="57" spans="10:17">
+      <c r="J57" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K57">
+        <v>0.06574394463667819</v>
+      </c>
+      <c r="L57">
+        <v>57</v>
+      </c>
+      <c r="M57">
+        <v>57</v>
+      </c>
+      <c r="N57">
+        <v>1</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+      <c r="P57" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="58" spans="10:17">
+      <c r="J58" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K58">
+        <v>0.054673721340388</v>
+      </c>
+      <c r="L58">
+        <v>31</v>
+      </c>
+      <c r="M58">
+        <v>31</v>
+      </c>
+      <c r="N58">
+        <v>1</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+      <c r="P58" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="59" spans="10:17">
+      <c r="J59" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K59">
+        <v>0.05375</v>
+      </c>
+      <c r="L59">
+        <v>172</v>
+      </c>
+      <c r="M59">
+        <v>173</v>
+      </c>
+      <c r="N59">
+        <v>0.99</v>
+      </c>
+      <c r="O59">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="P59" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q59">
+        <v>3028</v>
+      </c>
+    </row>
+    <row r="60" spans="10:17">
+      <c r="J60" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K60">
+        <v>0.04909560723514212</v>
+      </c>
+      <c r="L60">
+        <v>57</v>
+      </c>
+      <c r="M60">
+        <v>57</v>
+      </c>
+      <c r="N60">
+        <v>1</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+      <c r="P60" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="61" spans="10:17">
+      <c r="J61" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K61">
+        <v>0.02479338842975207</v>
+      </c>
+      <c r="L61">
+        <v>24</v>
+      </c>
+      <c r="M61">
+        <v>24</v>
+      </c>
+      <c r="N61">
+        <v>1</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+      <c r="P61" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <v>944</v>
       </c>
     </row>
   </sheetData>
